--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mif-Cd74.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mif-Cd74.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.94661295747962</v>
+        <v>8.837028333333333</v>
       </c>
       <c r="H2">
-        <v>6.94661295747962</v>
+        <v>26.511085</v>
       </c>
       <c r="I2">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="J2">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.07113192384468</v>
+        <v>1.256979</v>
       </c>
       <c r="N2">
-        <v>1.07113192384468</v>
+        <v>3.770937</v>
       </c>
       <c r="O2">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="P2">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="Q2">
-        <v>7.440738901349527</v>
+        <v>11.107959037405</v>
       </c>
       <c r="R2">
-        <v>7.440738901349527</v>
+        <v>99.97163133664499</v>
       </c>
       <c r="S2">
-        <v>4.869875460798051E-06</v>
+        <v>6.510691981025777E-06</v>
       </c>
       <c r="T2">
-        <v>4.869875460798051E-06</v>
+        <v>6.510691981025775E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.94661295747962</v>
+        <v>8.837028333333333</v>
       </c>
       <c r="H3">
-        <v>6.94661295747962</v>
+        <v>26.511085</v>
       </c>
       <c r="I3">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="J3">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.323531733210092</v>
+        <v>0.399045</v>
       </c>
       <c r="N3">
-        <v>0.323531733210092</v>
+        <v>1.197135</v>
       </c>
       <c r="O3">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952528E-05</v>
       </c>
       <c r="P3">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952526E-05</v>
       </c>
       <c r="Q3">
-        <v>2.247449730073065</v>
+        <v>3.526371971275</v>
       </c>
       <c r="R3">
-        <v>2.247449730073065</v>
+        <v>31.737347741475</v>
       </c>
       <c r="S3">
-        <v>1.470929222886044E-06</v>
+        <v>2.06690730837065E-06</v>
       </c>
       <c r="T3">
-        <v>1.470929222886044E-06</v>
+        <v>2.066907308370649E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.94661295747962</v>
+        <v>8.837028333333333</v>
       </c>
       <c r="H4">
-        <v>6.94661295747962</v>
+        <v>26.511085</v>
       </c>
       <c r="I4">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="J4">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1093.99517069603</v>
+        <v>1562.541941333333</v>
       </c>
       <c r="N4">
-        <v>1093.99517069603</v>
+        <v>4687.625824</v>
       </c>
       <c r="O4">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648098</v>
       </c>
       <c r="P4">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648097</v>
       </c>
       <c r="Q4">
-        <v>7599.561028177171</v>
+        <v>13808.22740758433</v>
       </c>
       <c r="R4">
-        <v>7599.561028177171</v>
+        <v>124274.046668259</v>
       </c>
       <c r="S4">
-        <v>0.00497382266124738</v>
+        <v>0.0080933963792994</v>
       </c>
       <c r="T4">
-        <v>0.00497382266124738</v>
+        <v>0.008093396379299398</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.94661295747962</v>
+        <v>8.837028333333333</v>
       </c>
       <c r="H5">
-        <v>6.94661295747962</v>
+        <v>26.511085</v>
       </c>
       <c r="I5">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="J5">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4620.25580557379</v>
+        <v>4648.383870333333</v>
       </c>
       <c r="N5">
-        <v>4620.25580557379</v>
+        <v>13945.151611</v>
       </c>
       <c r="O5">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866026</v>
       </c>
       <c r="P5">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866025</v>
       </c>
       <c r="Q5">
-        <v>32095.12884586933</v>
+        <v>41077.89996634532</v>
       </c>
       <c r="R5">
-        <v>32095.12884586933</v>
+        <v>369701.0996971079</v>
       </c>
       <c r="S5">
-        <v>0.02100588159991781</v>
+        <v>0.02407693015500561</v>
       </c>
       <c r="T5">
-        <v>0.02100588159991781</v>
+        <v>0.0240769301550056</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.94661295747962</v>
+        <v>8.837028333333333</v>
       </c>
       <c r="H6">
-        <v>6.94661295747962</v>
+        <v>26.511085</v>
       </c>
       <c r="I6">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="J6">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>292.206356910734</v>
+        <v>296.7239376666666</v>
       </c>
       <c r="N6">
-        <v>292.206356910734</v>
+        <v>890.1718129999999</v>
       </c>
       <c r="O6">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="P6">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="Q6">
-        <v>2029.844465174019</v>
+        <v>2622.157844338567</v>
       </c>
       <c r="R6">
-        <v>2029.844465174019</v>
+        <v>23599.4205990471</v>
       </c>
       <c r="S6">
-        <v>0.001328509154970461</v>
+        <v>0.001536921588622211</v>
       </c>
       <c r="T6">
-        <v>0.001328509154970461</v>
+        <v>0.001536921588622211</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.94661295747962</v>
+        <v>8.837028333333333</v>
       </c>
       <c r="H7">
-        <v>6.94661295747962</v>
+        <v>26.511085</v>
       </c>
       <c r="I7">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="J7">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.04105909125255</v>
+        <v>1.552768666666666</v>
       </c>
       <c r="N7">
-        <v>1.04105909125255</v>
+        <v>4.658306</v>
       </c>
       <c r="O7">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569206</v>
       </c>
       <c r="P7">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569205</v>
       </c>
       <c r="Q7">
-        <v>7.231834572796921</v>
+        <v>13.72186070244555</v>
       </c>
       <c r="R7">
-        <v>7.231834572796921</v>
+        <v>123.49674632201</v>
       </c>
       <c r="S7">
-        <v>4.733150052641569E-06</v>
+        <v>8.042774387205158E-06</v>
       </c>
       <c r="T7">
-        <v>4.733150052641569E-06</v>
+        <v>8.042774387205156E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>122.556546732602</v>
+        <v>123.4280906666667</v>
       </c>
       <c r="H8">
-        <v>122.556546732602</v>
+        <v>370.284272</v>
       </c>
       <c r="I8">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="J8">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.07113192384468</v>
+        <v>1.256979</v>
       </c>
       <c r="N8">
-        <v>1.07113192384468</v>
+        <v>3.770937</v>
       </c>
       <c r="O8">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="P8">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="Q8">
-        <v>131.2742296814524</v>
+        <v>155.146517978096</v>
       </c>
       <c r="R8">
-        <v>131.2742296814524</v>
+        <v>1396.318661802864</v>
       </c>
       <c r="S8">
-        <v>8.591742812597877E-05</v>
+        <v>9.093580441578937E-05</v>
       </c>
       <c r="T8">
-        <v>8.591742812597877E-05</v>
+        <v>9.093580441578935E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>122.556546732602</v>
+        <v>123.4280906666667</v>
       </c>
       <c r="H9">
-        <v>122.556546732602</v>
+        <v>370.284272</v>
       </c>
       <c r="I9">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="J9">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.323531733210092</v>
+        <v>0.399045</v>
       </c>
       <c r="N9">
-        <v>0.323531733210092</v>
+        <v>1.197135</v>
       </c>
       <c r="O9">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952528E-05</v>
       </c>
       <c r="P9">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952526E-05</v>
       </c>
       <c r="Q9">
-        <v>39.65093198064236</v>
+        <v>49.25336244008</v>
       </c>
       <c r="R9">
-        <v>39.65093198064236</v>
+        <v>443.28026196072</v>
       </c>
       <c r="S9">
-        <v>2.595106523833019E-05</v>
+        <v>2.886880216224668E-05</v>
       </c>
       <c r="T9">
-        <v>2.595106523833019E-05</v>
+        <v>2.886880216224667E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>122.556546732602</v>
+        <v>123.4280906666667</v>
       </c>
       <c r="H10">
-        <v>122.556546732602</v>
+        <v>370.284272</v>
       </c>
       <c r="I10">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="J10">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1093.99517069603</v>
+        <v>1562.541941333333</v>
       </c>
       <c r="N10">
-        <v>1093.99517069603</v>
+        <v>4687.625824</v>
       </c>
       <c r="O10">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648098</v>
       </c>
       <c r="P10">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648097</v>
       </c>
       <c r="Q10">
-        <v>134076.2702626489</v>
+        <v>192861.56840536</v>
       </c>
       <c r="R10">
-        <v>134076.2702626489</v>
+        <v>1735754.11564824</v>
       </c>
       <c r="S10">
-        <v>0.08775133049070956</v>
+        <v>0.1130416724293372</v>
       </c>
       <c r="T10">
-        <v>0.08775133049070956</v>
+        <v>0.1130416724293371</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>122.556546732602</v>
+        <v>123.4280906666667</v>
       </c>
       <c r="H11">
-        <v>122.556546732602</v>
+        <v>370.284272</v>
       </c>
       <c r="I11">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="J11">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4620.25580557379</v>
+        <v>4648.383870333333</v>
       </c>
       <c r="N11">
-        <v>4620.25580557379</v>
+        <v>13945.151611</v>
       </c>
       <c r="O11">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866026</v>
       </c>
       <c r="P11">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866025</v>
       </c>
       <c r="Q11">
-        <v>566242.5965523799</v>
+        <v>573741.1458009735</v>
       </c>
       <c r="R11">
-        <v>566242.5965523799</v>
+        <v>5163670.312208761</v>
       </c>
       <c r="S11">
-        <v>0.3705990711902111</v>
+        <v>0.3362860688063539</v>
       </c>
       <c r="T11">
-        <v>0.3705990711902111</v>
+        <v>0.3362860688063539</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>122.556546732602</v>
+        <v>123.4280906666667</v>
       </c>
       <c r="H12">
-        <v>122.556546732602</v>
+        <v>370.284272</v>
       </c>
       <c r="I12">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="J12">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>292.206356910734</v>
+        <v>296.7239376666666</v>
       </c>
       <c r="N12">
-        <v>292.206356910734</v>
+        <v>890.1718129999999</v>
       </c>
       <c r="O12">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="P12">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="Q12">
-        <v>35811.80203629375</v>
+        <v>36624.06908129168</v>
       </c>
       <c r="R12">
-        <v>35811.80203629375</v>
+        <v>329616.6217316251</v>
       </c>
       <c r="S12">
-        <v>0.02343840017177244</v>
+        <v>0.02146641269356041</v>
       </c>
       <c r="T12">
-        <v>0.02343840017177244</v>
+        <v>0.02146641269356041</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>122.556546732602</v>
+        <v>123.4280906666667</v>
       </c>
       <c r="H13">
-        <v>122.556546732602</v>
+        <v>370.284272</v>
       </c>
       <c r="I13">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="J13">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.04105909125255</v>
+        <v>1.552768666666666</v>
       </c>
       <c r="N13">
-        <v>1.04105909125255</v>
+        <v>4.658306</v>
       </c>
       <c r="O13">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569206</v>
       </c>
       <c r="P13">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569205</v>
       </c>
       <c r="Q13">
-        <v>127.5886071684933</v>
+        <v>191.6552717736924</v>
       </c>
       <c r="R13">
-        <v>127.5886071684933</v>
+        <v>1724.897445963232</v>
       </c>
       <c r="S13">
-        <v>8.350523185466908E-05</v>
+        <v>0.0001123346275275609</v>
       </c>
       <c r="T13">
-        <v>8.350523185466908E-05</v>
+        <v>0.0001123346275275609</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>27.9659827730663</v>
+        <v>30.82597366666667</v>
       </c>
       <c r="H14">
-        <v>27.9659827730663</v>
+        <v>92.47792099999999</v>
       </c>
       <c r="I14">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="J14">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.07113192384468</v>
+        <v>1.256979</v>
       </c>
       <c r="N14">
-        <v>1.07113192384468</v>
+        <v>3.770937</v>
       </c>
       <c r="O14">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="P14">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="Q14">
-        <v>29.95525692992168</v>
+        <v>38.747601553553</v>
       </c>
       <c r="R14">
-        <v>29.95525692992168</v>
+        <v>348.728413981977</v>
       </c>
       <c r="S14">
-        <v>1.960536078190681E-05</v>
+        <v>2.271107571329635E-05</v>
       </c>
       <c r="T14">
-        <v>1.960536078190681E-05</v>
+        <v>2.271107571329635E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>27.9659827730663</v>
+        <v>30.82597366666667</v>
       </c>
       <c r="H15">
-        <v>27.9659827730663</v>
+        <v>92.47792099999999</v>
       </c>
       <c r="I15">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="J15">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.323531733210092</v>
+        <v>0.399045</v>
       </c>
       <c r="N15">
-        <v>0.323531733210092</v>
+        <v>1.197135</v>
       </c>
       <c r="O15">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952528E-05</v>
       </c>
       <c r="P15">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952526E-05</v>
       </c>
       <c r="Q15">
-        <v>9.047882877493715</v>
+        <v>12.300950661815</v>
       </c>
       <c r="R15">
-        <v>9.047882877493715</v>
+        <v>110.708555956335</v>
       </c>
       <c r="S15">
-        <v>5.921732153414222E-06</v>
+        <v>7.209938438122151E-06</v>
       </c>
       <c r="T15">
-        <v>5.921732153414222E-06</v>
+        <v>7.209938438122149E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>27.9659827730663</v>
+        <v>30.82597366666667</v>
       </c>
       <c r="H16">
-        <v>27.9659827730663</v>
+        <v>92.47792099999999</v>
       </c>
       <c r="I16">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="J16">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1093.99517069603</v>
+        <v>1562.541941333333</v>
       </c>
       <c r="N16">
-        <v>1093.99517069603</v>
+        <v>4687.625824</v>
       </c>
       <c r="O16">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648098</v>
       </c>
       <c r="P16">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648097</v>
       </c>
       <c r="Q16">
-        <v>30594.6500975029</v>
+        <v>48166.87673660354</v>
       </c>
       <c r="R16">
-        <v>30594.6500975029</v>
+        <v>433501.8906294319</v>
       </c>
       <c r="S16">
-        <v>0.02002383603522352</v>
+        <v>0.02823198186669976</v>
       </c>
       <c r="T16">
-        <v>0.02002383603522352</v>
+        <v>0.02823198186669975</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.9659827730663</v>
+        <v>30.82597366666667</v>
       </c>
       <c r="H17">
-        <v>27.9659827730663</v>
+        <v>92.47792099999999</v>
       </c>
       <c r="I17">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="J17">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4620.25580557379</v>
+        <v>4648.383870333333</v>
       </c>
       <c r="N17">
-        <v>4620.25580557379</v>
+        <v>13945.151611</v>
       </c>
       <c r="O17">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866026</v>
       </c>
       <c r="P17">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866025</v>
       </c>
       <c r="Q17">
-        <v>129209.9942658362</v>
+        <v>143290.9587794534</v>
       </c>
       <c r="R17">
-        <v>129209.9942658362</v>
+        <v>1289618.629015081</v>
       </c>
       <c r="S17">
-        <v>0.08456641050137211</v>
+        <v>0.08398692263244323</v>
       </c>
       <c r="T17">
-        <v>0.08456641050137211</v>
+        <v>0.08398692263244321</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.9659827730663</v>
+        <v>30.82597366666667</v>
       </c>
       <c r="H18">
-        <v>27.9659827730663</v>
+        <v>92.47792099999999</v>
       </c>
       <c r="I18">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="J18">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>292.206356910734</v>
+        <v>296.7239376666666</v>
       </c>
       <c r="N18">
-        <v>292.206356910734</v>
+        <v>890.1718129999999</v>
       </c>
       <c r="O18">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="P18">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="Q18">
-        <v>8171.837943546049</v>
+        <v>9146.804288782307</v>
       </c>
       <c r="R18">
-        <v>8171.837943546049</v>
+        <v>82321.23859904076</v>
       </c>
       <c r="S18">
-        <v>0.005348371122614656</v>
+        <v>0.005361203181831274</v>
       </c>
       <c r="T18">
-        <v>0.005348371122614656</v>
+        <v>0.005361203181831273</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.9659827730663</v>
+        <v>30.82597366666667</v>
       </c>
       <c r="H19">
-        <v>27.9659827730663</v>
+        <v>92.47792099999999</v>
       </c>
       <c r="I19">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="J19">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.04105909125255</v>
+        <v>1.552768666666666</v>
       </c>
       <c r="N19">
-        <v>1.04105909125255</v>
+        <v>4.658306</v>
       </c>
       <c r="O19">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569206</v>
       </c>
       <c r="P19">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569205</v>
       </c>
       <c r="Q19">
-        <v>29.11424061171287</v>
+        <v>47.86560602909177</v>
       </c>
       <c r="R19">
-        <v>29.11424061171287</v>
+        <v>430.7904542618259</v>
       </c>
       <c r="S19">
-        <v>1.905492556512572E-05</v>
+        <v>2.805539850220321E-05</v>
       </c>
       <c r="T19">
-        <v>1.905492556512572E-05</v>
+        <v>2.80553985022032E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.4037659177435</v>
+        <v>25.73562433333333</v>
       </c>
       <c r="H20">
-        <v>25.4037659177435</v>
+        <v>77.206873</v>
       </c>
       <c r="I20">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="J20">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.07113192384468</v>
+        <v>1.256979</v>
       </c>
       <c r="N20">
-        <v>1.07113192384468</v>
+        <v>3.770937</v>
       </c>
       <c r="O20">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="P20">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="Q20">
-        <v>27.2107846603725</v>
+        <v>32.349139338889</v>
       </c>
       <c r="R20">
-        <v>27.2107846603725</v>
+        <v>291.142254050001</v>
       </c>
       <c r="S20">
-        <v>1.780913619513973E-05</v>
+        <v>1.896075430036815E-05</v>
       </c>
       <c r="T20">
-        <v>1.780913619513973E-05</v>
+        <v>1.896075430036815E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.4037659177435</v>
+        <v>25.73562433333333</v>
       </c>
       <c r="H21">
-        <v>25.4037659177435</v>
+        <v>77.206873</v>
       </c>
       <c r="I21">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="J21">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.323531733210092</v>
+        <v>0.399045</v>
       </c>
       <c r="N21">
-        <v>0.323531733210092</v>
+        <v>1.197135</v>
       </c>
       <c r="O21">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952528E-05</v>
       </c>
       <c r="P21">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952526E-05</v>
       </c>
       <c r="Q21">
-        <v>8.218924417431017</v>
+        <v>10.269672212095</v>
       </c>
       <c r="R21">
-        <v>8.218924417431017</v>
+        <v>92.42704990885501</v>
       </c>
       <c r="S21">
-        <v>5.379188661940802E-06</v>
+        <v>6.01934813532319E-06</v>
       </c>
       <c r="T21">
-        <v>5.379188661940802E-06</v>
+        <v>6.019348135323189E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.4037659177435</v>
+        <v>25.73562433333333</v>
       </c>
       <c r="H22">
-        <v>25.4037659177435</v>
+        <v>77.206873</v>
       </c>
       <c r="I22">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="J22">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1093.99517069603</v>
+        <v>1562.541941333333</v>
       </c>
       <c r="N22">
-        <v>1093.99517069603</v>
+        <v>4687.625824</v>
       </c>
       <c r="O22">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648098</v>
       </c>
       <c r="P22">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648097</v>
       </c>
       <c r="Q22">
-        <v>27791.59723150379</v>
+        <v>40212.99240723204</v>
       </c>
       <c r="R22">
-        <v>27791.59723150379</v>
+        <v>361916.9316650883</v>
       </c>
       <c r="S22">
-        <v>0.01818927114208193</v>
+        <v>0.02356998313706243</v>
       </c>
       <c r="T22">
-        <v>0.01818927114208193</v>
+        <v>0.02356998313706242</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.4037659177435</v>
+        <v>25.73562433333333</v>
       </c>
       <c r="H23">
-        <v>25.4037659177435</v>
+        <v>77.206873</v>
       </c>
       <c r="I23">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="J23">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4620.25580557379</v>
+        <v>4648.383870333333</v>
       </c>
       <c r="N23">
-        <v>4620.25580557379</v>
+        <v>13945.151611</v>
       </c>
       <c r="O23">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866026</v>
       </c>
       <c r="P23">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866025</v>
       </c>
       <c r="Q23">
-        <v>117371.896964892</v>
+        <v>119629.0610440247</v>
       </c>
       <c r="R23">
-        <v>117371.896964892</v>
+        <v>1076661.549396222</v>
       </c>
       <c r="S23">
-        <v>0.07681851606336787</v>
+        <v>0.07011800870116738</v>
       </c>
       <c r="T23">
-        <v>0.07681851606336787</v>
+        <v>0.07011800870116738</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.4037659177435</v>
+        <v>25.73562433333333</v>
       </c>
       <c r="H24">
-        <v>25.4037659177435</v>
+        <v>77.206873</v>
       </c>
       <c r="I24">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="J24">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>292.206356910734</v>
+        <v>296.7239376666666</v>
       </c>
       <c r="N24">
-        <v>292.206356910734</v>
+        <v>890.1718129999999</v>
       </c>
       <c r="O24">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="P24">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="Q24">
-        <v>7423.141890636896</v>
+        <v>7636.37579049675</v>
       </c>
       <c r="R24">
-        <v>7423.141890636896</v>
+        <v>68727.38211447075</v>
       </c>
       <c r="S24">
-        <v>0.004858358425757715</v>
+        <v>0.004475897908505568</v>
       </c>
       <c r="T24">
-        <v>0.004858358425757715</v>
+        <v>0.004475897908505567</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.4037659177435</v>
+        <v>25.73562433333333</v>
       </c>
       <c r="H25">
-        <v>25.4037659177435</v>
+        <v>77.206873</v>
       </c>
       <c r="I25">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="J25">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.04105909125255</v>
+        <v>1.552768666666666</v>
       </c>
       <c r="N25">
-        <v>1.04105909125255</v>
+        <v>4.658306</v>
       </c>
       <c r="O25">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569206</v>
       </c>
       <c r="P25">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569205</v>
       </c>
       <c r="Q25">
-        <v>26.44682146071855</v>
+        <v>39.96147108190421</v>
       </c>
       <c r="R25">
-        <v>26.44682146071855</v>
+        <v>359.653239737138</v>
       </c>
       <c r="S25">
-        <v>1.730913133160759E-05</v>
+        <v>2.342255930606392E-05</v>
       </c>
       <c r="T25">
-        <v>1.730913133160759E-05</v>
+        <v>2.342255930606391E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.8709812173715</v>
+        <v>35.74964633333334</v>
       </c>
       <c r="H26">
-        <v>34.8709812173715</v>
+        <v>107.248939</v>
       </c>
       <c r="I26">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="J26">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.07113192384468</v>
+        <v>1.256979</v>
       </c>
       <c r="N26">
-        <v>1.07113192384468</v>
+        <v>3.770937</v>
       </c>
       <c r="O26">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="P26">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="Q26">
-        <v>37.35142119771483</v>
+        <v>44.93655469842701</v>
       </c>
       <c r="R26">
-        <v>37.35142119771483</v>
+        <v>404.428992285843</v>
       </c>
       <c r="S26">
-        <v>2.444606267311611E-05</v>
+        <v>2.633859787786214E-05</v>
       </c>
       <c r="T26">
-        <v>2.444606267311611E-05</v>
+        <v>2.633859787786213E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>34.8709812173715</v>
+        <v>35.74964633333334</v>
       </c>
       <c r="H27">
-        <v>34.8709812173715</v>
+        <v>107.248939</v>
       </c>
       <c r="I27">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="J27">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.323531733210092</v>
+        <v>0.399045</v>
       </c>
       <c r="N27">
-        <v>0.323531733210092</v>
+        <v>1.197135</v>
       </c>
       <c r="O27">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952528E-05</v>
       </c>
       <c r="P27">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952526E-05</v>
       </c>
       <c r="Q27">
-        <v>11.28186899199276</v>
+        <v>14.265717621085</v>
       </c>
       <c r="R27">
-        <v>11.28186899199276</v>
+        <v>128.391458589765</v>
       </c>
       <c r="S27">
-        <v>7.383849599409987E-06</v>
+        <v>8.361544457124181E-06</v>
       </c>
       <c r="T27">
-        <v>7.383849599409987E-06</v>
+        <v>8.361544457124179E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>34.8709812173715</v>
+        <v>35.74964633333334</v>
       </c>
       <c r="H28">
-        <v>34.8709812173715</v>
+        <v>107.248939</v>
       </c>
       <c r="I28">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="J28">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1093.99517069603</v>
+        <v>1562.541941333333</v>
       </c>
       <c r="N28">
-        <v>1093.99517069603</v>
+        <v>4687.625824</v>
       </c>
       <c r="O28">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648098</v>
       </c>
       <c r="P28">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648097</v>
       </c>
       <c r="Q28">
-        <v>38148.6850492364</v>
+        <v>55860.32178366675</v>
       </c>
       <c r="R28">
-        <v>38148.6850492364</v>
+        <v>502742.8960530008</v>
       </c>
       <c r="S28">
-        <v>0.02496786241878411</v>
+        <v>0.03274132969609891</v>
       </c>
       <c r="T28">
-        <v>0.02496786241878411</v>
+        <v>0.0327413296960989</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>34.8709812173715</v>
+        <v>35.74964633333334</v>
       </c>
       <c r="H29">
-        <v>34.8709812173715</v>
+        <v>107.248939</v>
       </c>
       <c r="I29">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="J29">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4620.25580557379</v>
+        <v>4648.383870333333</v>
       </c>
       <c r="N29">
-        <v>4620.25580557379</v>
+        <v>13945.151611</v>
       </c>
       <c r="O29">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866026</v>
       </c>
       <c r="P29">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866025</v>
       </c>
       <c r="Q29">
-        <v>161112.8534156153</v>
+        <v>166178.0793859879</v>
       </c>
       <c r="R29">
-        <v>161112.8534156153</v>
+        <v>1495602.714473891</v>
       </c>
       <c r="S29">
-        <v>0.1054464538630102</v>
+        <v>0.09740171756461333</v>
       </c>
       <c r="T29">
-        <v>0.1054464538630102</v>
+        <v>0.09740171756461331</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>34.8709812173715</v>
+        <v>35.74964633333334</v>
       </c>
       <c r="H30">
-        <v>34.8709812173715</v>
+        <v>107.248939</v>
       </c>
       <c r="I30">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="J30">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>292.206356910734</v>
+        <v>296.7239376666666</v>
       </c>
       <c r="N30">
-        <v>292.206356910734</v>
+        <v>890.1718129999999</v>
       </c>
       <c r="O30">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="P30">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="Q30">
-        <v>10189.52238343076</v>
+        <v>10607.77583021738</v>
       </c>
       <c r="R30">
-        <v>10189.52238343076</v>
+        <v>95469.98247195641</v>
       </c>
       <c r="S30">
-        <v>0.006668921685092596</v>
+        <v>0.00621752032049713</v>
       </c>
       <c r="T30">
-        <v>0.006668921685092596</v>
+        <v>0.006217520320497129</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>34.8709812173715</v>
+        <v>35.74964633333334</v>
       </c>
       <c r="H31">
-        <v>34.8709812173715</v>
+        <v>107.248939</v>
       </c>
       <c r="I31">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="J31">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.04105909125255</v>
+        <v>1.552768666666666</v>
       </c>
       <c r="N31">
-        <v>1.04105909125255</v>
+        <v>4.658306</v>
       </c>
       <c r="O31">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569206</v>
       </c>
       <c r="P31">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569205</v>
       </c>
       <c r="Q31">
-        <v>36.30275201724151</v>
+        <v>55.51093067081489</v>
       </c>
       <c r="R31">
-        <v>36.30275201724151</v>
+        <v>499.598376037334</v>
       </c>
       <c r="S31">
-        <v>2.375972111803803E-05</v>
+        <v>3.253654158794815E-05</v>
       </c>
       <c r="T31">
-        <v>2.375972111803803E-05</v>
+        <v>3.253654158794814E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>36.5311529083783</v>
+        <v>37.46440266666666</v>
       </c>
       <c r="H32">
-        <v>36.5311529083783</v>
+        <v>112.393208</v>
       </c>
       <c r="I32">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="J32">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.07113192384468</v>
+        <v>1.256979</v>
       </c>
       <c r="N32">
-        <v>1.07113192384468</v>
+        <v>3.770937</v>
       </c>
       <c r="O32">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="P32">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="Q32">
-        <v>39.12968409501543</v>
+        <v>47.091967399544</v>
       </c>
       <c r="R32">
-        <v>39.12968409501543</v>
+        <v>423.827706595896</v>
       </c>
       <c r="S32">
-        <v>2.560991467239015E-05</v>
+        <v>2.760194681007443E-05</v>
       </c>
       <c r="T32">
-        <v>2.560991467239015E-05</v>
+        <v>2.760194681007443E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>36.5311529083783</v>
+        <v>37.46440266666666</v>
       </c>
       <c r="H33">
-        <v>36.5311529083783</v>
+        <v>112.393208</v>
       </c>
       <c r="I33">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="J33">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.323531733210092</v>
+        <v>0.399045</v>
       </c>
       <c r="N33">
-        <v>0.323531733210092</v>
+        <v>1.197135</v>
       </c>
       <c r="O33">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952528E-05</v>
       </c>
       <c r="P33">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952526E-05</v>
       </c>
       <c r="Q33">
-        <v>11.81898721661052</v>
+        <v>14.94998256212</v>
       </c>
       <c r="R33">
-        <v>11.81898721661052</v>
+        <v>134.54984305908</v>
       </c>
       <c r="S33">
-        <v>7.735387114204255E-06</v>
+        <v>8.762611678338423E-06</v>
       </c>
       <c r="T33">
-        <v>7.735387114204255E-06</v>
+        <v>8.762611678338421E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>36.5311529083783</v>
+        <v>37.46440266666666</v>
       </c>
       <c r="H34">
-        <v>36.5311529083783</v>
+        <v>112.393208</v>
       </c>
       <c r="I34">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="J34">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1093.99517069603</v>
+        <v>1562.541941333333</v>
       </c>
       <c r="N34">
-        <v>1093.99517069603</v>
+        <v>4687.625824</v>
       </c>
       <c r="O34">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648098</v>
       </c>
       <c r="P34">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648097</v>
       </c>
       <c r="Q34">
-        <v>39964.9048617241</v>
+        <v>58539.70047366704</v>
       </c>
       <c r="R34">
-        <v>39964.9048617241</v>
+        <v>526857.3042630034</v>
       </c>
       <c r="S34">
-        <v>0.02615655676937406</v>
+        <v>0.03431179005631208</v>
       </c>
       <c r="T34">
-        <v>0.02615655676937406</v>
+        <v>0.03431179005631207</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>36.5311529083783</v>
+        <v>37.46440266666666</v>
       </c>
       <c r="H35">
-        <v>36.5311529083783</v>
+        <v>112.393208</v>
       </c>
       <c r="I35">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="J35">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4620.25580557379</v>
+        <v>4648.383870333333</v>
       </c>
       <c r="N35">
-        <v>4620.25580557379</v>
+        <v>13945.151611</v>
       </c>
       <c r="O35">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866026</v>
       </c>
       <c r="P35">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866025</v>
       </c>
       <c r="Q35">
-        <v>168783.2713092387</v>
+        <v>174148.9250674064</v>
       </c>
       <c r="R35">
-        <v>168783.2713092387</v>
+        <v>1567340.325606658</v>
       </c>
       <c r="S35">
-        <v>0.1104666515032537</v>
+        <v>0.102073657827019</v>
       </c>
       <c r="T35">
-        <v>0.1104666515032537</v>
+        <v>0.102073657827019</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>36.5311529083783</v>
+        <v>37.46440266666666</v>
       </c>
       <c r="H36">
-        <v>36.5311529083783</v>
+        <v>112.393208</v>
       </c>
       <c r="I36">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="J36">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>292.206356910734</v>
+        <v>296.7239376666666</v>
       </c>
       <c r="N36">
-        <v>292.206356910734</v>
+        <v>890.1718129999999</v>
       </c>
       <c r="O36">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="P36">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="Q36">
-        <v>10674.63510510619</v>
+        <v>11116.5850815829</v>
       </c>
       <c r="R36">
-        <v>10674.63510510619</v>
+        <v>100049.2657342461</v>
       </c>
       <c r="S36">
-        <v>0.006986422214318216</v>
+        <v>0.006515747951836247</v>
       </c>
       <c r="T36">
-        <v>0.006986422214318216</v>
+        <v>0.006515747951836246</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>36.5311529083783</v>
+        <v>37.46440266666666</v>
       </c>
       <c r="H37">
-        <v>36.5311529083783</v>
+        <v>112.393208</v>
       </c>
       <c r="I37">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="J37">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.04105909125255</v>
+        <v>1.552768666666666</v>
       </c>
       <c r="N37">
-        <v>1.04105909125255</v>
+        <v>4.658306</v>
       </c>
       <c r="O37">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569206</v>
       </c>
       <c r="P37">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569205</v>
       </c>
       <c r="Q37">
-        <v>38.03108884920426</v>
+        <v>58.1735505761831</v>
       </c>
       <c r="R37">
-        <v>38.03108884920426</v>
+        <v>523.561955185648</v>
       </c>
       <c r="S37">
-        <v>2.489089709902054E-05</v>
+        <v>3.409717914593922E-05</v>
       </c>
       <c r="T37">
-        <v>2.489089709902054E-05</v>
+        <v>3.40971791459392E-05</v>
       </c>
     </row>
   </sheetData>
